--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\FALL_2023\ECE-6654-NENR\ResearchPjt3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9C3BB-22E7-4339-A724-54A6BA2AC34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB082C1-57CC-4DEB-8C88-E0F64C922976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,12 +468,12 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chips.eng.utah.edu\home\u0912711\.win_my_documents\ECE 6654\NENR_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB082C1-57CC-4DEB-8C88-E0F64C922976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B6B99-A86D-4924-8D11-3F98152DD38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Output Characteristic Device </t>
   </si>
@@ -135,9 +135,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Burs</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -145,6 +142,36 @@
   </si>
   <si>
     <t>interleaved biphasic pulses</t>
+  </si>
+  <si>
+    <t>Voltage Regulated</t>
+  </si>
+  <si>
+    <t>Current / pulse width</t>
+  </si>
+  <si>
+    <t>Peak voltage / resistance</t>
+  </si>
+  <si>
+    <t>Max volt peak/510- min volt/510</t>
+  </si>
+  <si>
+    <t>Use cell B17 and divide by elerode area</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>240hz, 250 uS, 1 mA</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>30-240</t>
+  </si>
+  <si>
+    <t>Biphasic symmetrical</t>
   </si>
 </sst>
 </file>
@@ -465,159 +492,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f>0.001*510</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <f>((0.862-0.532)/510)*10^9</f>
+        <v>647058.82352941169</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <f>((0.532-0.528)/510)*10^6</f>
+        <v>7.8431372549019676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>(0.532/510)*(250/(10^6))</f>
+        <v>2.6078431372549019E-7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="1">
+        <f>0.532*(0.001)</f>
+        <v>5.3200000000000003E-4</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -625,8 +710,8 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chips.eng.utah.edu\home\u0912711\.win_my_documents\ECE 6654\NENR_Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chips.eng.utah.edu\home\u1425501\.win_my_documents\Github\NENR_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B6B99-A86D-4924-8D11-3F98152DD38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E39D31-C98E-4A24-A54A-9AC5C3FEE434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Output Characteristic Device </t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Number of Output Channels1
 - Synchronous, alternating
@@ -59,9 +53,6 @@
 [current should be reported at 500 Ω and at impedances 
 covering the minimum, typical, and maximum range of 
 physiologic impedances for the location being stimulated]</t>
-  </si>
-  <si>
-    <t>Pulse Duration2, 4 (specify units)</t>
   </si>
   <si>
     <t>For multiphasic waveforms2 :  
@@ -71,31 +62,7 @@
 (both phases, if asymmetrical)</t>
   </si>
   <si>
-    <t>Frequency (Hz)5</t>
-  </si>
-  <si>
-    <t>Method of Balancing Charge6</t>
-  </si>
-  <si>
     <t>Are charge balancing cycles always completed?</t>
-  </si>
-  <si>
-    <t>Net Charge (µC per pulse) @ 500 Ω</t>
-  </si>
-  <si>
-    <t>Leakage Current8 (nA) @ 500 Ω</t>
-  </si>
-  <si>
-    <t>Net DC Current9 (µA) at maximum pulse rate @ 500 Ω</t>
-  </si>
-  <si>
-    <t>Maximum Phase Charge (µC) @ 500 Ω</t>
-  </si>
-  <si>
-    <t>Maximum Phase Power (W/phase) @ 500 Ω</t>
-  </si>
-  <si>
-    <t>Maximum Phase Power Density (W/cm²/phase) @ 500 Ω</t>
   </si>
   <si>
     <t xml:space="preserve">Pulse Delivery Mode (continuous/bursts (pulse trains)) </t>
@@ -108,18 +75,9 @@
 d. Duty Cycle [Line a X Line b]</t>
   </si>
   <si>
-    <t xml:space="preserve">ON Time12 (seconds) </t>
-  </si>
-  <si>
-    <t>OFF Time12 (seconds)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current Path Options13 (bipolar, unipolar, multipolar) </t>
   </si>
   <si>
-    <t>Maximum Charge Density10 (µC/cm²/phase) @ 500 Ω</t>
-  </si>
-  <si>
     <t>1, NA</t>
   </si>
   <si>
@@ -147,18 +105,12 @@
     <t>Voltage Regulated</t>
   </si>
   <si>
-    <t>Current / pulse width</t>
-  </si>
-  <si>
     <t>Peak voltage / resistance</t>
   </si>
   <si>
     <t>Max volt peak/510- min volt/510</t>
   </si>
   <si>
-    <t>Use cell B17 and divide by elerode area</t>
-  </si>
-  <si>
     <t>Burst</t>
   </si>
   <si>
@@ -171,15 +123,123 @@
     <t>30-240</t>
   </si>
   <si>
-    <t>Biphasic symmetrical</t>
+    <t>Output Characteristic</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Biphasic Symmetrical Phases</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>uC</t>
+  </si>
+  <si>
+    <t>Current / pulse width = 1ma / 250 us</t>
+  </si>
+  <si>
+    <t>Net Charge (µC per pulse) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>Maximum Phase Charge (µC) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>W/phase</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>Maximum Charge Density10 (µC/cm²/phase) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>Maximum Phase Power (W/phase) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>Maximum Phase Power Density (W/cm²/phase) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>nA</t>
+  </si>
+  <si>
+    <t>uA</t>
+  </si>
+  <si>
+    <t>Leakage Current (nA) @ 510 Ω</t>
+  </si>
+  <si>
+    <t>Net DC Current (µA) at maximum pulse rate @ 510 Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Time(seconds) </t>
+  </si>
+  <si>
+    <t>OFF Time (seconds)</t>
+  </si>
+  <si>
+    <t>Use cell B17 and divide by electrode area</t>
+  </si>
+  <si>
+    <t>W/cm^2/phase</t>
+  </si>
+  <si>
+    <t>Burst Delivery: 
+a. Pulses per burst: 8.3
+b. Bursts per second: 1
+c. Burst duration (seconds): 1
+d. Duty Cycle [Line a X Line b]: 8.3</t>
+  </si>
+  <si>
+    <t>Output (software)</t>
+  </si>
+  <si>
+    <t>Output (measured)</t>
+  </si>
+  <si>
+    <t>Frequency (Stimulation Parameter 2)</t>
+  </si>
+  <si>
+    <t>Method of Balancing Charge</t>
+  </si>
+  <si>
+    <t>29.96-240</t>
+  </si>
+  <si>
+    <t>Pulse Duration</t>
+  </si>
+  <si>
+    <t>524mV</t>
+  </si>
+  <si>
+    <t>v1 = 848, v2 = 806</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,9 +267,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,229 +558,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="1">
         <f>0.001*510</f>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f>0.001*510</f>
+        <v>0.51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>205.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1">
+        <v>647058.82350000006</v>
+      </c>
+      <c r="C14" s="1">
+        <v>647058.82350000006</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
+      <c r="E14">
         <f>((0.862-0.532)/510)*10^9</f>
         <v>647058.82352941169</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.84</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
         <f>((0.532-0.528)/510)*10^6</f>
         <v>7.8431372549019676</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <f>(0.532/510)*(250/(10^6))</f>
         <v>2.6078431372549019E-7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f>(0.532/510)*(250/(10^6))</f>
+        <v>2.6078431372549019E-7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <f>(0.532/510/(3.14*0.75*0.75)*(250/(10^6)))</f>
+        <v>1.4764858526567033E-7</v>
+      </c>
+      <c r="C17" s="1">
+        <f>(0.532/510/(3.14*0.75*0.75)*(250/(10^6)))</f>
+        <v>1.4764858526567033E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <f>0.532*(0.001)</f>
         <v>5.3200000000000003E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f>0.532*(0.001)</f>
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <f>(0.532*(0.001)/3.14*0.75*0.75)</f>
+        <v>9.5302547770700642E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <f>(0.532*(0.001)/3.14*0.75*0.75)</f>
+        <v>9.5302547770700642E-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chips.eng.utah.edu\home\u1425501\.win_my_documents\Github\NENR_Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NENR_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E39D31-C98E-4A24-A54A-9AC5C3FEE434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343C56A-0C32-4A45-8BB1-C7E479630DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Number of Output Channels1
 - Synchronous, alternating
@@ -224,6 +236,75 @@
   </si>
   <si>
     <t>v1 = 848, v2 = 806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse Shape </t>
+  </si>
+  <si>
+    <t>For multiphasic waveforms</t>
+  </si>
+  <si>
+    <t>Maximum Output Current reported at 500 Ω.</t>
+  </si>
+  <si>
+    <t>Pulse Frequency</t>
+  </si>
+  <si>
+    <t>Maximum Output Voltage  reported at 500 Ω.</t>
+  </si>
+  <si>
+    <t>Number of Output Channels</t>
+  </si>
+  <si>
+    <t>W/cm²/phase</t>
+  </si>
+  <si>
+    <t>ON Time</t>
+  </si>
+  <si>
+    <t>OFF Time</t>
+  </si>
+  <si>
+    <t>Burst Delivery: 
+a. Pulses per burst;
+b. Bursts per second;
+c. Burst duration
+d. Duty Cycle</t>
+  </si>
+  <si>
+    <t>Waveform</t>
+  </si>
+  <si>
+    <t>Current/voltage regulated?</t>
+  </si>
+  <si>
+    <t>Pulse Delivery Mode</t>
+  </si>
+  <si>
+    <t>Current Path Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+a: 8.3
+b: 1
+c. 1
+d: 3.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+a: 8.3
+b: 1
+c: 1
+d: 3.4113</t>
+  </si>
+  <si>
+    <t>a: counts
+b: counts
+c: S
+d: mS</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -267,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,8 +356,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +764,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="1">
@@ -929,6 +1014,389 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C1BC3-0C1B-4928-AFEB-DEC7D45B74C9}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5">
+        <f>0.001*510</f>
+        <v>0.51</v>
+      </c>
+      <c r="C6" s="5">
+        <f>0.001*524</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>205.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4">
+        <v>647058.82350000006</v>
+      </c>
+      <c r="C14" s="4">
+        <v>647058.82350000006</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <f>((0.862-0.532)/510)*10^9</f>
+        <v>647058.82352941169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7.84</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <f>((0.532-0.528)/510)*10^6</f>
+        <v>7.8431372549019676</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4">
+        <f>(0.532/510)*(250/(10^6))</f>
+        <v>2.6078431372549019E-7</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(0.532/510)*(250/(10^6))</f>
+        <v>2.6078431372549019E-7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <f>(0.532/510/(3.14*0.75*0.75)*(250/(10^6)))</f>
+        <v>1.4764858526567033E-7</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(0.532/510/(3.14*0.75*0.75)*(250/(10^6)))</f>
+        <v>1.4764858526567033E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <f>0.532*(0.001)</f>
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="C18" s="4">
+        <f>0.532*(0.001)</f>
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <f>(0.532*(0.001)/3.14*0.75*0.75)</f>
+        <v>9.5302547770700642E-5</v>
+      </c>
+      <c r="C19" s="4">
+        <f>(0.532*(0.001)/3.14*0.75*0.75)</f>
+        <v>9.5302547770700642E-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
